--- a/statistics_temp_erik.xlsx
+++ b/statistics_temp_erik.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="60">
   <si>
     <t>Build1</t>
   </si>
@@ -175,12 +182,29 @@
   <si>
     <t>ExtractMax5</t>
   </si>
+  <si>
+    <t>List,Avl</t>
+  </si>
+  <si>
+    <t>List,Hiep</t>
+  </si>
+  <si>
+    <t>List,Hash</t>
+  </si>
+  <si>
+    <t>Avl,Hiep</t>
+  </si>
+  <si>
+    <t>Avl,Hash</t>
+  </si>
+  <si>
+    <t>Hiep,hash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -188,22 +212,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFBE8C00" tint="0"/>
+      <color rgb="FFBE8C00"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF548235" tint="0"/>
+      <color rgb="FF548235"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0" tint="0"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000" tint="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -225,31 +249,487 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -325,8 +805,26 @@
       <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:34">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -402,8 +900,32 @@
       <c r="Y2" s="3">
         <v>1</v>
       </c>
+      <c r="AA2">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),1,1)</f>
+        <v>1.9412685234802523E-3</v>
+      </c>
+      <c r="AB2">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),1,1)</f>
+        <v>1.9408566924700694E-4</v>
+      </c>
+      <c r="AC2">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
+        <v>4.4608271190530404E-5</v>
+      </c>
+      <c r="AE2" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF2" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH2" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:34">
       <c r="A3" s="1">
         <v>100000</v>
       </c>
@@ -479,8 +1001,32 @@
       <c r="Y3" s="3">
         <v>30</v>
       </c>
+      <c r="AA3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),1,1)</f>
+        <v>4.5657401912558993E-7</v>
+      </c>
+      <c r="AB3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),1,1)</f>
+        <v>4.2946366791853248E-8</v>
+      </c>
+      <c r="AC3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
+        <v>1.1920663657621095E-6</v>
+      </c>
+      <c r="AE3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),1,1)</f>
+        <v>4.3712549293812291E-8</v>
+      </c>
+      <c r="AF3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
+        <v>4.2191625880063955E-4</v>
+      </c>
+      <c r="AH3">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
+        <v>7.1388930739338982E-5</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:34">
       <c r="A4" s="1">
         <v>1000000</v>
       </c>
@@ -556,8 +1102,32 @@
       <c r="Y4" s="3">
         <v>607</v>
       </c>
+      <c r="AA4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),1,1)</f>
+        <v>1.1901817345844106E-4</v>
+      </c>
+      <c r="AB4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),1,1)</f>
+        <v>2.0231765514150062E-5</v>
+      </c>
+      <c r="AC4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
+        <v>5.1133121286773886E-2</v>
+      </c>
+      <c r="AE4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),1,1)</f>
+        <v>3.4193610336577027E-7</v>
+      </c>
+      <c r="AF4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
+        <v>6.1059316560529378E-6</v>
+      </c>
+      <c r="AH4">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
+        <v>6.0377495129073509E-8</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:34">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:34">
       <c r="A6" s="1">
         <v>10000</v>
       </c>
@@ -710,8 +1280,32 @@
       <c r="Y6" s="3">
         <v>1</v>
       </c>
+      <c r="AA6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:34">
       <c r="A7" s="1">
         <v>100000</v>
       </c>
@@ -787,8 +1381,32 @@
       <c r="Y7" s="3">
         <v>26</v>
       </c>
+      <c r="AA7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),1,1)</f>
+        <v>2.3179197089522145E-3</v>
+      </c>
+      <c r="AB7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),1,1)</f>
+        <v>1.2683708073739337E-8</v>
+      </c>
+      <c r="AC7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
+        <v>0.18695048315002927</v>
+      </c>
+      <c r="AE7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),1,1)</f>
+        <v>3.5995079280800694E-8</v>
+      </c>
+      <c r="AF7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
+        <v>0.29565981593342744</v>
+      </c>
+      <c r="AH7">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
+        <v>4.3950310555547972E-6</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:34">
       <c r="A8" s="1">
         <v>1000000</v>
       </c>
@@ -864,8 +1482,32 @@
       <c r="Y8" s="3">
         <v>472</v>
       </c>
+      <c r="AA8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),1,1)</f>
+        <v>8.6680845510598572E-4</v>
+      </c>
+      <c r="AB8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),1,1)</f>
+        <v>2.3279055085037532E-4</v>
+      </c>
+      <c r="AC8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
+        <v>1.7760406431685196E-4</v>
+      </c>
+      <c r="AE8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),1,1)</f>
+        <v>4.0039833265052614E-5</v>
+      </c>
+      <c r="AF8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
+        <v>0.41082851952096244</v>
+      </c>
+      <c r="AH8">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
+        <v>1.0372490365910829E-3</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:34">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:34">
       <c r="A10" s="1">
         <v>10000</v>
       </c>
@@ -1018,8 +1660,32 @@
       <c r="Y10" s="3">
         <v>1</v>
       </c>
+      <c r="AA10">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),1,1)</f>
+        <v>0.18695048315002927</v>
+      </c>
+      <c r="AB10">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),1,1)</f>
+        <v>4.2191625880063911E-4</v>
+      </c>
+      <c r="AC10">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
+        <v>1.9412685234802523E-3</v>
+      </c>
+      <c r="AE10" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:34">
       <c r="A11" s="1">
         <v>100000</v>
       </c>
@@ -1095,8 +1761,32 @@
       <c r="Y11" s="3">
         <v>28</v>
       </c>
+      <c r="AA11" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),1,1)</f>
+        <v>1.7753300269663093E-8</v>
+      </c>
+      <c r="AC11">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
+        <v>5.0833130864456064E-4</v>
+      </c>
+      <c r="AE11">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),1,1)</f>
+        <v>1.7753300269663093E-8</v>
+      </c>
+      <c r="AF11">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
+        <v>5.0833130864456064E-4</v>
+      </c>
+      <c r="AH11">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
+        <v>1.6859449662327351E-6</v>
+      </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:34">
       <c r="A12" s="1">
         <v>1000000</v>
       </c>
@@ -1172,8 +1862,32 @@
       <c r="Y12" s="3">
         <v>475</v>
       </c>
+      <c r="AA12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),1,1)</f>
+        <v>2.1283856484891365E-3</v>
+      </c>
+      <c r="AB12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),1,1)</f>
+        <v>2.7369154590270879E-4</v>
+      </c>
+      <c r="AC12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
+        <v>4.305436483175578E-5</v>
+      </c>
+      <c r="AE12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),1,1)</f>
+        <v>1.8399865413064914E-5</v>
+      </c>
+      <c r="AF12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
+        <v>0.12905150600581386</v>
+      </c>
+      <c r="AH12">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
+        <v>3.0127249942656789E-3</v>
+      </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:34">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:34">
       <c r="A15" s="1">
         <v>10000</v>
       </c>
@@ -1326,8 +2040,32 @@
       <c r="Y15" s="3">
         <v>1</v>
       </c>
+      <c r="AA15" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),1,1)</f>
+        <v>4.8198007154876851E-11</v>
+      </c>
+      <c r="AC15" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),1,1)</f>
+        <v>4.7341110170385166E-11</v>
+      </c>
+      <c r="AF15" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH15">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
+        <v>4.7341110170385166E-11</v>
+      </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:34">
       <c r="A16" s="1">
         <v>100000</v>
       </c>
@@ -1403,8 +2141,32 @@
       <c r="Y16" s="3">
         <v>6</v>
       </c>
+      <c r="AA16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),1,1)</f>
+        <v>8.3688791171014445E-7</v>
+      </c>
+      <c r="AB16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),1,1)</f>
+        <v>1.0050523331611281E-7</v>
+      </c>
+      <c r="AC16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
+        <v>1.6133757552684467E-6</v>
+      </c>
+      <c r="AE16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),1,1)</f>
+        <v>1.005252210176984E-7</v>
+      </c>
+      <c r="AF16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
+        <v>3.1222596816874054E-3</v>
+      </c>
+      <c r="AH16">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
+        <v>1.0032567105945801E-7</v>
+      </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:34">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
@@ -1480,8 +2242,32 @@
       <c r="Y17" s="3">
         <v>109</v>
       </c>
+      <c r="AA17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),1,1)</f>
+        <v>6.1616696316464344E-7</v>
+      </c>
+      <c r="AB17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),1,1)</f>
+        <v>5.100041930413341E-7</v>
+      </c>
+      <c r="AC17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
+        <v>1.2469805877405019E-6</v>
+      </c>
+      <c r="AE17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),1,1)</f>
+        <v>1.8854970741756803E-6</v>
+      </c>
+      <c r="AF17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
+        <v>8.9039910744211274E-5</v>
+      </c>
+      <c r="AH17">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
+        <v>1.5940437136528453E-6</v>
+      </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:34">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:34">
       <c r="A20" s="1">
         <v>10000</v>
       </c>
@@ -1634,8 +2420,32 @@
       <c r="Y20" s="3">
         <v>1</v>
       </c>
+      <c r="AA20">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),1,1)</f>
+        <v>7.9765762841150855E-7</v>
+      </c>
+      <c r="AB20" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC20" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE20">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),1,1)</f>
+        <v>8.0650449500462677E-3</v>
+      </c>
+      <c r="AF20">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AH20" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:34">
       <c r="A21" s="1">
         <v>100000</v>
       </c>
@@ -1711,8 +2521,32 @@
       <c r="Y21" s="3">
         <v>1</v>
       </c>
+      <c r="AA21">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),1,1)</f>
+        <v>8.7109293647838612E-5</v>
+      </c>
+      <c r="AB21">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),1,1)</f>
+        <v>4.6719999999999965E-3</v>
+      </c>
+      <c r="AC21">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
+        <v>6.1483861727128436E-5</v>
+      </c>
+      <c r="AE21">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AF21" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH21">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
+        <v>8.9743856850306419E-2</v>
+      </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:34">
       <c r="A22" s="1">
         <v>1000000</v>
       </c>
@@ -1788,8 +2622,32 @@
       <c r="Y22" s="3">
         <v>1</v>
       </c>
+      <c r="AA22">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),1,1)</f>
+        <v>4.2741341642552007E-7</v>
+      </c>
+      <c r="AB22">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),1,1)</f>
+        <v>5.8058261758407774E-2</v>
+      </c>
+      <c r="AC22">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
+        <v>3.150137330491133E-7</v>
+      </c>
+      <c r="AE22">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),1,1)</f>
+        <v>6.215550407028668E-3</v>
+      </c>
+      <c r="AF22" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH22">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
+        <v>4.2485688558413425E-3</v>
+      </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:34">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -1866,7 +2724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:34">
       <c r="A25" s="1">
         <v>10000</v>
       </c>
@@ -1942,8 +2800,32 @@
       <c r="Y25" s="3">
         <v>1</v>
       </c>
+      <c r="AA25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),1,1)</f>
+        <v>4.2741341642552007E-7</v>
+      </c>
+      <c r="AB25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),1,1)</f>
+        <v>3.7092044303511415E-6</v>
+      </c>
+      <c r="AC25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
+        <v>1.046252701151096E-6</v>
+      </c>
+      <c r="AE25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),1,1)</f>
+        <v>2.3179197089522063E-3</v>
+      </c>
+      <c r="AF25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
+        <v>8.8903904178110726E-2</v>
+      </c>
+      <c r="AH25">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
+        <v>4.2191625880063911E-4</v>
+      </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:34">
       <c r="A26" s="1">
         <v>100000</v>
       </c>
@@ -2019,8 +2901,32 @@
       <c r="Y26" s="3">
         <v>1</v>
       </c>
+      <c r="AA26">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),1,1)</f>
+        <v>9.9923085501675663E-8</v>
+      </c>
+      <c r="AB26">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),1,1)</f>
+        <v>3.1501373304911277E-7</v>
+      </c>
+      <c r="AC26">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
+        <v>1.8205888082888372E-7</v>
+      </c>
+      <c r="AE26">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),1,1)</f>
+        <v>1.941268523480256E-3</v>
+      </c>
+      <c r="AF26">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
+        <v>8.0650449500462677E-3</v>
+      </c>
+      <c r="AH26" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:34">
       <c r="A27" s="1">
         <v>1000000</v>
       </c>
@@ -2096,8 +3002,32 @@
       <c r="Y27" s="3">
         <v>1</v>
       </c>
+      <c r="AA27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),1,1)</f>
+        <v>2.3410171166966273E-5</v>
+      </c>
+      <c r="AB27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),1,1)</f>
+        <v>6.9490258236933316E-5</v>
+      </c>
+      <c r="AC27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
+        <v>2.8519253429191382E-7</v>
+      </c>
+      <c r="AE27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),1,1)</f>
+        <v>0.12099076528401055</v>
+      </c>
+      <c r="AF27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
+        <v>4.3822588251697388E-2</v>
+      </c>
+      <c r="AH27">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
+        <v>3.2492955171060309E-2</v>
+      </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:34">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:34">
       <c r="A30" s="1">
         <v>10000</v>
       </c>
@@ -2250,8 +3180,32 @@
       <c r="Y30" s="3">
         <v>1</v>
       </c>
+      <c r="AA30">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),1,1)</f>
+        <v>6.328494953948841E-10</v>
+      </c>
+      <c r="AB30">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),1,1)</f>
+        <v>6.328494953948841E-10</v>
+      </c>
+      <c r="AC30">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
+        <v>6.2547191024256703E-10</v>
+      </c>
+      <c r="AE30" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:34">
       <c r="A31" s="1">
         <v>100000</v>
       </c>
@@ -2327,8 +3281,32 @@
       <c r="Y31" s="3">
         <v>34</v>
       </c>
+      <c r="AA31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),1,1)</f>
+        <v>1.138568444392008E-8</v>
+      </c>
+      <c r="AB31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),1,1)</f>
+        <v>1.1502430194327628E-8</v>
+      </c>
+      <c r="AC31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
+        <v>1.1691026760195664E-8</v>
+      </c>
+      <c r="AE31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),1,1)</f>
+        <v>4.4716568587437327E-4</v>
+      </c>
+      <c r="AF31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
+        <v>0.48249491068338402</v>
+      </c>
+      <c r="AH31">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
+        <v>6.8612937513002781E-3</v>
+      </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:34">
       <c r="A32" s="1">
         <v>1000000</v>
       </c>
@@ -2404,8 +3382,32 @@
       <c r="Y32" s="3">
         <v>616</v>
       </c>
+      <c r="AA32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),1,1)</f>
+        <v>1.7359665148060156E-6</v>
+      </c>
+      <c r="AB32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),1,1)</f>
+        <v>4.0058525752835196E-9</v>
+      </c>
+      <c r="AC32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
+        <v>1.0243266412146689E-7</v>
+      </c>
+      <c r="AE32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),1,1)</f>
+        <v>3.9086845808899308E-6</v>
+      </c>
+      <c r="AF32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
+        <v>1.9747272095136257E-5</v>
+      </c>
+      <c r="AH32">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
+        <v>3.2963369145900209E-7</v>
+      </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:34">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2482,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:34">
       <c r="A34" s="1">
         <v>10000</v>
       </c>
@@ -2558,8 +3560,32 @@
       <c r="Y34" s="3">
         <v>2</v>
       </c>
+      <c r="AA34">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),1,1)</f>
+        <v>3.7839748295432317E-11</v>
+      </c>
+      <c r="AB34">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),1,1)</f>
+        <v>3.8212332312715655E-11</v>
+      </c>
+      <c r="AC34">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
+        <v>3.4424968236801008E-11</v>
+      </c>
+      <c r="AE34" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF34">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
+        <v>8.0650449500462677E-3</v>
+      </c>
+      <c r="AH34">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
+        <v>2.2601065539704837E-5</v>
+      </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:34">
       <c r="A35" s="1">
         <v>100000</v>
       </c>
@@ -2635,8 +3661,32 @@
       <c r="Y35" s="3">
         <v>34</v>
       </c>
+      <c r="AA35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),1,1)</f>
+        <v>5.934024997400706E-10</v>
+      </c>
+      <c r="AB35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),1,1)</f>
+        <v>5.9503818568036053E-10</v>
+      </c>
+      <c r="AC35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
+        <v>5.9066367457356093E-10</v>
+      </c>
+      <c r="AE35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),1,1)</f>
+        <v>1.3216516687067278E-7</v>
+      </c>
+      <c r="AF35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
+        <v>8.9671393804823928E-3</v>
+      </c>
+      <c r="AH35">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
+        <v>3.278685787861532E-3</v>
+      </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:34">
       <c r="A36" s="1">
         <v>1000000</v>
       </c>
@@ -2712,8 +3762,32 @@
       <c r="Y36" s="3">
         <v>387</v>
       </c>
+      <c r="AA36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),1,1)</f>
+        <v>2.4608264413042982E-6</v>
+      </c>
+      <c r="AB36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),1,1)</f>
+        <v>1.1976837685518803E-7</v>
+      </c>
+      <c r="AC36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
+        <v>1.1642548847663586E-6</v>
+      </c>
+      <c r="AE36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),1,1)</f>
+        <v>4.9543717418677719E-6</v>
+      </c>
+      <c r="AF36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
+        <v>8.0751998481235396E-5</v>
+      </c>
+      <c r="AH36">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
+        <v>1.2889414129491191E-7</v>
+      </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:34">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -2790,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:34">
       <c r="A38" s="1">
         <v>10000</v>
       </c>
@@ -2866,8 +3940,32 @@
       <c r="Y38" s="3">
         <v>1</v>
       </c>
+      <c r="AA38">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),1,1)</f>
+        <v>1.3470846870003782E-5</v>
+      </c>
+      <c r="AB38">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),1,1)</f>
+        <v>1.6961823247933822E-5</v>
+      </c>
+      <c r="AC38">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
+        <v>1.3803772760606935E-5</v>
+      </c>
+      <c r="AE38" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF38">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
+        <v>8.0650449500462677E-3</v>
+      </c>
+      <c r="AH38">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
+        <v>2.2601065539704837E-5</v>
+      </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:34">
       <c r="A39" s="1">
         <v>100000</v>
       </c>
@@ -2943,8 +4041,32 @@
       <c r="Y39" s="3">
         <v>39</v>
       </c>
+      <c r="AA39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),1,1)</f>
+        <v>4.6236433740297589E-6</v>
+      </c>
+      <c r="AB39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),1,1)</f>
+        <v>4.6855172963063163E-6</v>
+      </c>
+      <c r="AC39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
+        <v>4.6934121512678432E-6</v>
+      </c>
+      <c r="AE39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),1,1)</f>
+        <v>9.3012396548597468E-9</v>
+      </c>
+      <c r="AF39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
+        <v>5.773386027692862E-3</v>
+      </c>
+      <c r="AH39">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
+        <v>8.1157972676951518E-3</v>
+      </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:34">
       <c r="A40" s="1">
         <v>1000000</v>
       </c>
@@ -3020,8 +4142,32 @@
       <c r="Y40" s="3">
         <v>372</v>
       </c>
+      <c r="AA40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),1,1)</f>
+        <v>4.0562280987519854E-9</v>
+      </c>
+      <c r="AB40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),1,1)</f>
+        <v>4.0573624750060522E-9</v>
+      </c>
+      <c r="AC40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
+        <v>4.0484999588626569E-9</v>
+      </c>
+      <c r="AE40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),1,1)</f>
+        <v>1.1614531586914003E-6</v>
+      </c>
+      <c r="AF40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
+        <v>1.7936520428282125E-3</v>
+      </c>
+      <c r="AH40">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
+        <v>3.661742470149349E-6</v>
+      </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:34">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -3098,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:34">
       <c r="A43" s="1">
         <v>10000</v>
       </c>
@@ -3174,8 +4320,32 @@
       <c r="Y43" s="3">
         <v>1</v>
       </c>
+      <c r="AA43">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),1,1)</f>
+        <v>9.9923085501675663E-8</v>
+      </c>
+      <c r="AB43">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),1,1)</f>
+        <v>7.6939456917722437E-8</v>
+      </c>
+      <c r="AC43" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE43">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),1,1)</f>
+        <v>9.2444637330586943E-35</v>
+      </c>
+      <c r="AF43">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AH43">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
+        <v>8.0650449500462677E-3</v>
+      </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:34">
       <c r="A44" s="1">
         <v>100000</v>
       </c>
@@ -3251,8 +4421,32 @@
       <c r="Y44" s="3">
         <v>9</v>
       </c>
+      <c r="AA44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),1,1)</f>
+        <v>1.1049124730322824E-10</v>
+      </c>
+      <c r="AB44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),1,1)</f>
+        <v>1.605022331407342E-11</v>
+      </c>
+      <c r="AC44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
+        <v>6.3206065070236388E-11</v>
+      </c>
+      <c r="AE44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),1,1)</f>
+        <v>1.0465305734781544E-3</v>
+      </c>
+      <c r="AF44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
+        <v>3.4506877710087356E-3</v>
+      </c>
+      <c r="AH44">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
+        <v>3.9595371411983004E-3</v>
+      </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:34">
       <c r="A45" s="1">
         <v>1000000</v>
       </c>
@@ -3328,8 +4522,32 @@
       <c r="Y45" s="3">
         <v>124</v>
       </c>
+      <c r="AA45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),1,1)</f>
+        <v>2.217885854095688E-4</v>
+      </c>
+      <c r="AB45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),1,1)</f>
+        <v>2.2120297189081516E-4</v>
+      </c>
+      <c r="AC45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
+        <v>2.2138747384499747E-4</v>
+      </c>
+      <c r="AE45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),1,1)</f>
+        <v>7.5347780705352847E-6</v>
+      </c>
+      <c r="AF45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
+        <v>2.2545719709019732E-5</v>
+      </c>
+      <c r="AH45">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
+        <v>1.9562815818740497E-8</v>
+      </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:34">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -3406,7 +4624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:34">
       <c r="A48" s="1">
         <v>10000</v>
       </c>
@@ -3482,8 +4700,32 @@
       <c r="Y48" s="3">
         <v>3240</v>
       </c>
+      <c r="AA48" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB48" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC48">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
+        <v>2.6050611872923126E-11</v>
+      </c>
+      <c r="AE48" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF48">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
+        <v>2.6050611872923126E-11</v>
+      </c>
+      <c r="AH48">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
+        <v>2.6050611872923126E-11</v>
+      </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:34">
       <c r="A49" s="1">
         <v>100000</v>
       </c>
@@ -3559,8 +4801,32 @@
       <c r="Y49" s="3">
         <v>37277</v>
       </c>
+      <c r="AA49" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB49" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC49">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
+        <v>2.0090989026987141E-12</v>
+      </c>
+      <c r="AE49" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF49">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
+        <v>2.0090989026987141E-12</v>
+      </c>
+      <c r="AH49">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
+        <v>2.0090989026987141E-12</v>
+      </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:34">
       <c r="A50" s="1">
         <v>1000000</v>
       </c>
@@ -3636,8 +4902,32 @@
       <c r="Y50" s="3">
         <v>880274</v>
       </c>
+      <c r="AA50">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AB50" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC50">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
+        <v>3.6678768952580071E-11</v>
+      </c>
+      <c r="AE50">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AF50">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
+        <v>3.6686992480558752E-11</v>
+      </c>
+      <c r="AH50">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
+        <v>3.6678768952580071E-11</v>
+      </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:34">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -3714,7 +5004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:34">
       <c r="A53" s="1">
         <v>10000</v>
       </c>
@@ -3790,8 +5080,32 @@
       <c r="Y53" s="3">
         <v>3168</v>
       </c>
+      <c r="AA53" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB53" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC53">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
+        <v>7.1104961439791436E-12</v>
+      </c>
+      <c r="AE53" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF53">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
+        <v>7.1104961439791436E-12</v>
+      </c>
+      <c r="AH53">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
+        <v>7.1104961439791436E-12</v>
+      </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:34">
       <c r="A54" s="1">
         <v>100000</v>
       </c>
@@ -3867,8 +5181,32 @@
       <c r="Y54" s="3">
         <v>40363</v>
       </c>
+      <c r="AA54" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB54" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC54">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
+        <v>6.858817689941321E-5</v>
+      </c>
+      <c r="AE54" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF54">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
+        <v>6.858817689941321E-5</v>
+      </c>
+      <c r="AH54">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
+        <v>6.858817689941321E-5</v>
+      </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:34">
       <c r="A55" s="1">
         <v>1000000</v>
       </c>
@@ -3944,8 +5282,32 @@
       <c r="Y55" s="3">
         <v>903803</v>
       </c>
+      <c r="AA55">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AB55" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC55">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
+        <v>4.676100595914997E-8</v>
+      </c>
+      <c r="AE55">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),1,1)</f>
+        <v>0.18695048315002952</v>
+      </c>
+      <c r="AF55">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
+        <v>4.6761201346323753E-8</v>
+      </c>
+      <c r="AH55">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
+        <v>4.676100595914997E-8</v>
+      </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:34">
       <c r="A57" s="4" t="s">
         <v>44</v>
       </c>
@@ -4022,7 +5384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:34">
       <c r="A58" s="1">
         <v>10000</v>
       </c>
@@ -4098,8 +5460,32 @@
       <c r="Y58" s="3">
         <v>1446</v>
       </c>
+      <c r="AA58" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB58" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC58">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
+        <v>3.7315519113500946E-12</v>
+      </c>
+      <c r="AE58" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF58">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
+        <v>3.460228822167752E-12</v>
+      </c>
+      <c r="AH58">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
+        <v>3.5085652602345534E-12</v>
+      </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:34">
       <c r="A59" s="1">
         <v>100000</v>
       </c>
@@ -4175,8 +5561,32 @@
       <c r="Y59" s="3">
         <v>169185</v>
       </c>
+      <c r="AA59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),1,1)</f>
+        <v>1.0272872284454827E-12</v>
+      </c>
+      <c r="AB59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),1,1)</f>
+        <v>3.3662168133023833E-13</v>
+      </c>
+      <c r="AC59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
+        <v>9.6856006630985232E-9</v>
+      </c>
+      <c r="AE59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),1,1)</f>
+        <v>3.3827669095619959E-6</v>
+      </c>
+      <c r="AF59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
+        <v>8.7521392193463641E-9</v>
+      </c>
+      <c r="AH59">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
+        <v>8.743009675397176E-9</v>
+      </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:34">
       <c r="A60" s="1">
         <v>1000000</v>
       </c>
@@ -4252,8 +5662,32 @@
       <c r="Y60" s="3">
         <v>-1</v>
       </c>
+      <c r="AA60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),1,1)</f>
+        <v>5.4805405550075543E-4</v>
+      </c>
+      <c r="AB60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),1,1)</f>
+        <v>5.500911863644259E-4</v>
+      </c>
+      <c r="AC60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
+        <v>5.4778103488084735E-4</v>
+      </c>
+      <c r="AE60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),1,1)</f>
+        <v>1.210584701966831E-8</v>
+      </c>
+      <c r="AF60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
+        <v>5.1694807140227384E-10</v>
+      </c>
+      <c r="AH60">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
+        <v>7.2272274043501706E-9</v>
+      </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:34">
       <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
@@ -4330,7 +5764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:34">
       <c r="A63" s="1">
         <v>10000</v>
       </c>
@@ -4406,8 +5840,32 @@
       <c r="Y63" s="3">
         <v>1445</v>
       </c>
+      <c r="AA63" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB63">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),1,1)</f>
+        <v>1.9408566924700694E-4</v>
+      </c>
+      <c r="AC63">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
+        <v>6.4228818080770015E-13</v>
+      </c>
+      <c r="AE63">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),1,1)</f>
+        <v>6.5006528833606935E-6</v>
+      </c>
+      <c r="AF63">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
+        <v>6.3696501979952904E-13</v>
+      </c>
+      <c r="AH63">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
+        <v>6.1958159520414786E-13</v>
+      </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:34">
       <c r="A64" s="1">
         <v>100000</v>
       </c>
@@ -4483,8 +5941,32 @@
       <c r="Y64" s="3">
         <v>166077</v>
       </c>
+      <c r="AA64" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB64" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC64">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
+        <v>1.9891049742492966E-12</v>
+      </c>
+      <c r="AE64" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF64">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
+        <v>1.9876176670265183E-12</v>
+      </c>
+      <c r="AH64">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
+        <v>1.9907378144076841E-12</v>
+      </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:34">
       <c r="A65" s="1">
         <v>1000000</v>
       </c>
@@ -4560,8 +6042,55 @@
       <c r="Y65" s="3">
         <v>-1</v>
       </c>
+      <c r="AA65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),1,1)</f>
+        <v>3.8383348347252721E-6</v>
+      </c>
+      <c r="AB65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),1,1)</f>
+        <v>1.673602356848078E-6</v>
+      </c>
+      <c r="AC65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
+        <v>1.494570839553672E-6</v>
+      </c>
+      <c r="AE65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),1,1)</f>
+        <v>1.2665577775116052E-12</v>
+      </c>
+      <c r="AF65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
+        <v>3.8452572317687211E-10</v>
+      </c>
+      <c r="AH65">
+        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
+        <v>2.462775431267511E-13</v>
+      </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <conditionalFormatting sqref="AA2:AC65">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AF65">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH65">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AH65">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_temp_erik.xlsx
+++ b/statistics_temp_erik.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OMVISWEG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Build1</t>
   </si>
@@ -181,30 +174,13 @@
   </si>
   <si>
     <t>ExtractMax5</t>
-  </si>
-  <si>
-    <t>List,Avl</t>
-  </si>
-  <si>
-    <t>List,Hiep</t>
-  </si>
-  <si>
-    <t>List,Hash</t>
-  </si>
-  <si>
-    <t>Avl,Hiep</t>
-  </si>
-  <si>
-    <t>Avl,Hash</t>
-  </si>
-  <si>
-    <t>Hiep,hash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -212,22 +188,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFBE8C00"/>
+      <color rgb="FFBE8C00" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF548235"/>
+      <color rgb="FF548235" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF0070C0" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFF0000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -249,487 +225,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH65"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -805,26 +325,8 @@
       <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -900,32 +402,8 @@
       <c r="Y2" s="3">
         <v>1</v>
       </c>
-      <c r="AA2">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),1,1)</f>
-        <v>1.9412685234802523E-3</v>
-      </c>
-      <c r="AB2">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),1,1)</f>
-        <v>1.9408566924700694E-4</v>
-      </c>
-      <c r="AC2">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B2,G2,L2,Q2,V2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
-        <v>4.4608271190530404E-5</v>
-      </c>
-      <c r="AE2" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF2" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C2,H2,M2,R2,W2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH2" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D2,I2,N2,S2,X2),CHOOSE({1;2;3;4;5},E2,J2,O2,T2,Y2),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>100000</v>
       </c>
@@ -1001,32 +479,8 @@
       <c r="Y3" s="3">
         <v>30</v>
       </c>
-      <c r="AA3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),1,1)</f>
-        <v>4.5657401912558993E-7</v>
-      </c>
-      <c r="AB3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),1,1)</f>
-        <v>4.2946366791853248E-8</v>
-      </c>
-      <c r="AC3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B3,G3,L3,Q3,V3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
-        <v>1.1920663657621095E-6</v>
-      </c>
-      <c r="AE3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),1,1)</f>
-        <v>4.3712549293812291E-8</v>
-      </c>
-      <c r="AF3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C3,H3,M3,R3,W3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
-        <v>4.2191625880063955E-4</v>
-      </c>
-      <c r="AH3">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D3,I3,N3,S3,X3),CHOOSE({1;2;3;4;5},E3,J3,O3,T3,Y3),1,1)</f>
-        <v>7.1388930739338982E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>1000000</v>
       </c>
@@ -1102,32 +556,8 @@
       <c r="Y4" s="3">
         <v>607</v>
       </c>
-      <c r="AA4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),1,1)</f>
-        <v>1.1901817345844106E-4</v>
-      </c>
-      <c r="AB4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),1,1)</f>
-        <v>2.0231765514150062E-5</v>
-      </c>
-      <c r="AC4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B4,G4,L4,Q4,V4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
-        <v>5.1133121286773886E-2</v>
-      </c>
-      <c r="AE4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),1,1)</f>
-        <v>3.4193610336577027E-7</v>
-      </c>
-      <c r="AF4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C4,H4,M4,R4,W4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
-        <v>6.1059316560529378E-6</v>
-      </c>
-      <c r="AH4">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D4,I4,N4,S4,X4),CHOOSE({1;2;3;4;5},E4,J4,O4,T4,Y4),1,1)</f>
-        <v>6.0377495129073509E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6">
       <c r="A6" s="1">
         <v>10000</v>
       </c>
@@ -1280,32 +710,8 @@
       <c r="Y6" s="3">
         <v>1</v>
       </c>
-      <c r="AA6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B6,G6,L6,Q6,V6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C6,H6,M6,R6,W6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH6" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D6,I6,N6,S6,X6),CHOOSE({1;2;3;4;5},E6,J6,O6,T6,Y6),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>100000</v>
       </c>
@@ -1381,32 +787,8 @@
       <c r="Y7" s="3">
         <v>26</v>
       </c>
-      <c r="AA7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),1,1)</f>
-        <v>2.3179197089522145E-3</v>
-      </c>
-      <c r="AB7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),1,1)</f>
-        <v>1.2683708073739337E-8</v>
-      </c>
-      <c r="AC7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B7,G7,L7,Q7,V7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
-        <v>0.18695048315002927</v>
-      </c>
-      <c r="AE7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),1,1)</f>
-        <v>3.5995079280800694E-8</v>
-      </c>
-      <c r="AF7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C7,H7,M7,R7,W7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
-        <v>0.29565981593342744</v>
-      </c>
-      <c r="AH7">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D7,I7,N7,S7,X7),CHOOSE({1;2;3;4;5},E7,J7,O7,T7,Y7),1,1)</f>
-        <v>4.3950310555547972E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>1000000</v>
       </c>
@@ -1482,32 +864,8 @@
       <c r="Y8" s="3">
         <v>472</v>
       </c>
-      <c r="AA8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),1,1)</f>
-        <v>8.6680845510598572E-4</v>
-      </c>
-      <c r="AB8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),1,1)</f>
-        <v>2.3279055085037532E-4</v>
-      </c>
-      <c r="AC8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B8,G8,L8,Q8,V8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
-        <v>1.7760406431685196E-4</v>
-      </c>
-      <c r="AE8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),1,1)</f>
-        <v>4.0039833265052614E-5</v>
-      </c>
-      <c r="AF8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C8,H8,M8,R8,W8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
-        <v>0.41082851952096244</v>
-      </c>
-      <c r="AH8">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D8,I8,N8,S8,X8),CHOOSE({1;2;3;4;5},E8,J8,O8,T8,Y8),1,1)</f>
-        <v>1.0372490365910829E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+    </row>
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10">
       <c r="A10" s="1">
         <v>10000</v>
       </c>
@@ -1660,32 +1018,8 @@
       <c r="Y10" s="3">
         <v>1</v>
       </c>
-      <c r="AA10">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),1,1)</f>
-        <v>0.18695048315002927</v>
-      </c>
-      <c r="AB10">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),1,1)</f>
-        <v>4.2191625880063911E-4</v>
-      </c>
-      <c r="AC10">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B10,G10,L10,Q10,V10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
-        <v>1.9412685234802523E-3</v>
-      </c>
-      <c r="AE10" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF10" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C10,H10,M10,R10,W10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D10,I10,N10,S10,X10),CHOOSE({1;2;3;4;5},E10,J10,O10,T10,Y10),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>100000</v>
       </c>
@@ -1761,32 +1095,8 @@
       <c r="Y11" s="3">
         <v>28</v>
       </c>
-      <c r="AA11" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB11">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),1,1)</f>
-        <v>1.7753300269663093E-8</v>
-      </c>
-      <c r="AC11">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B11,G11,L11,Q11,V11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
-        <v>5.0833130864456064E-4</v>
-      </c>
-      <c r="AE11">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),1,1)</f>
-        <v>1.7753300269663093E-8</v>
-      </c>
-      <c r="AF11">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C11,H11,M11,R11,W11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
-        <v>5.0833130864456064E-4</v>
-      </c>
-      <c r="AH11">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D11,I11,N11,S11,X11),CHOOSE({1;2;3;4;5},E11,J11,O11,T11,Y11),1,1)</f>
-        <v>1.6859449662327351E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>1000000</v>
       </c>
@@ -1862,32 +1172,8 @@
       <c r="Y12" s="3">
         <v>475</v>
       </c>
-      <c r="AA12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),1,1)</f>
-        <v>2.1283856484891365E-3</v>
-      </c>
-      <c r="AB12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),1,1)</f>
-        <v>2.7369154590270879E-4</v>
-      </c>
-      <c r="AC12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B12,G12,L12,Q12,V12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
-        <v>4.305436483175578E-5</v>
-      </c>
-      <c r="AE12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),1,1)</f>
-        <v>1.8399865413064914E-5</v>
-      </c>
-      <c r="AF12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C12,H12,M12,R12,W12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
-        <v>0.12905150600581386</v>
-      </c>
-      <c r="AH12">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D12,I12,N12,S12,X12),CHOOSE({1;2;3;4;5},E12,J12,O12,T12,Y12),1,1)</f>
-        <v>3.0127249942656789E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15">
       <c r="A15" s="1">
         <v>10000</v>
       </c>
@@ -2040,32 +1326,8 @@
       <c r="Y15" s="3">
         <v>1</v>
       </c>
-      <c r="AA15" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB15">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),1,1)</f>
-        <v>4.8198007154876851E-11</v>
-      </c>
-      <c r="AC15" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B15,G15,L15,Q15,V15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE15">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),1,1)</f>
-        <v>4.7341110170385166E-11</v>
-      </c>
-      <c r="AF15" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C15,H15,M15,R15,W15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH15">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D15,I15,N15,S15,X15),CHOOSE({1;2;3;4;5},E15,J15,O15,T15,Y15),1,1)</f>
-        <v>4.7341110170385166E-11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>100000</v>
       </c>
@@ -2141,32 +1403,8 @@
       <c r="Y16" s="3">
         <v>6</v>
       </c>
-      <c r="AA16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),1,1)</f>
-        <v>8.3688791171014445E-7</v>
-      </c>
-      <c r="AB16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),1,1)</f>
-        <v>1.0050523331611281E-7</v>
-      </c>
-      <c r="AC16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B16,G16,L16,Q16,V16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
-        <v>1.6133757552684467E-6</v>
-      </c>
-      <c r="AE16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),1,1)</f>
-        <v>1.005252210176984E-7</v>
-      </c>
-      <c r="AF16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C16,H16,M16,R16,W16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
-        <v>3.1222596816874054E-3</v>
-      </c>
-      <c r="AH16">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D16,I16,N16,S16,X16),CHOOSE({1;2;3;4;5},E16,J16,O16,T16,Y16),1,1)</f>
-        <v>1.0032567105945801E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
@@ -2242,32 +1480,8 @@
       <c r="Y17" s="3">
         <v>109</v>
       </c>
-      <c r="AA17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),1,1)</f>
-        <v>6.1616696316464344E-7</v>
-      </c>
-      <c r="AB17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),1,1)</f>
-        <v>5.100041930413341E-7</v>
-      </c>
-      <c r="AC17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B17,G17,L17,Q17,V17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
-        <v>1.2469805877405019E-6</v>
-      </c>
-      <c r="AE17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),1,1)</f>
-        <v>1.8854970741756803E-6</v>
-      </c>
-      <c r="AF17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C17,H17,M17,R17,W17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
-        <v>8.9039910744211274E-5</v>
-      </c>
-      <c r="AH17">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D17,I17,N17,S17,X17),CHOOSE({1;2;3;4;5},E17,J17,O17,T17,Y17),1,1)</f>
-        <v>1.5940437136528453E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+    </row>
+    <row r="19">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +1558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20">
       <c r="A20" s="1">
         <v>10000</v>
       </c>
@@ -2420,32 +1634,8 @@
       <c r="Y20" s="3">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),1,1)</f>
-        <v>7.9765762841150855E-7</v>
-      </c>
-      <c r="AB20" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC20" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B20,G20,L20,Q20,V20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE20">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),1,1)</f>
-        <v>8.0650449500462677E-3</v>
-      </c>
-      <c r="AF20">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C20,H20,M20,R20,W20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AH20" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D20,I20,N20,S20,X20),CHOOSE({1;2;3;4;5},E20,J20,O20,T20,Y20),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>100000</v>
       </c>
@@ -2521,32 +1711,8 @@
       <c r="Y21" s="3">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),1,1)</f>
-        <v>8.7109293647838612E-5</v>
-      </c>
-      <c r="AB21">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),1,1)</f>
-        <v>4.6719999999999965E-3</v>
-      </c>
-      <c r="AC21">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B21,G21,L21,Q21,V21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
-        <v>6.1483861727128436E-5</v>
-      </c>
-      <c r="AE21">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AF21" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C21,H21,M21,R21,W21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH21">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D21,I21,N21,S21,X21),CHOOSE({1;2;3;4;5},E21,J21,O21,T21,Y21),1,1)</f>
-        <v>8.9743856850306419E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+    </row>
+    <row r="22">
       <c r="A22" s="1">
         <v>1000000</v>
       </c>
@@ -2622,32 +1788,8 @@
       <c r="Y22" s="3">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),1,1)</f>
-        <v>4.2741341642552007E-7</v>
-      </c>
-      <c r="AB22">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),1,1)</f>
-        <v>5.8058261758407774E-2</v>
-      </c>
-      <c r="AC22">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B22,G22,L22,Q22,V22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
-        <v>3.150137330491133E-7</v>
-      </c>
-      <c r="AE22">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),1,1)</f>
-        <v>6.215550407028668E-3</v>
-      </c>
-      <c r="AF22" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C22,H22,M22,R22,W22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH22">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D22,I22,N22,S22,X22),CHOOSE({1;2;3;4;5},E22,J22,O22,T22,Y22),1,1)</f>
-        <v>4.2485688558413425E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+    </row>
+    <row r="24">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25">
       <c r="A25" s="1">
         <v>10000</v>
       </c>
@@ -2800,32 +1942,8 @@
       <c r="Y25" s="3">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),1,1)</f>
-        <v>4.2741341642552007E-7</v>
-      </c>
-      <c r="AB25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),1,1)</f>
-        <v>3.7092044303511415E-6</v>
-      </c>
-      <c r="AC25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B25,G25,L25,Q25,V25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
-        <v>1.046252701151096E-6</v>
-      </c>
-      <c r="AE25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),1,1)</f>
-        <v>2.3179197089522063E-3</v>
-      </c>
-      <c r="AF25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C25,H25,M25,R25,W25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
-        <v>8.8903904178110726E-2</v>
-      </c>
-      <c r="AH25">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D25,I25,N25,S25,X25),CHOOSE({1;2;3;4;5},E25,J25,O25,T25,Y25),1,1)</f>
-        <v>4.2191625880063911E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>100000</v>
       </c>
@@ -2901,32 +2019,8 @@
       <c r="Y26" s="3">
         <v>1</v>
       </c>
-      <c r="AA26">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),1,1)</f>
-        <v>9.9923085501675663E-8</v>
-      </c>
-      <c r="AB26">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),1,1)</f>
-        <v>3.1501373304911277E-7</v>
-      </c>
-      <c r="AC26">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B26,G26,L26,Q26,V26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
-        <v>1.8205888082888372E-7</v>
-      </c>
-      <c r="AE26">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),1,1)</f>
-        <v>1.941268523480256E-3</v>
-      </c>
-      <c r="AF26">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C26,H26,M26,R26,W26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
-        <v>8.0650449500462677E-3</v>
-      </c>
-      <c r="AH26" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D26,I26,N26,S26,X26),CHOOSE({1;2;3;4;5},E26,J26,O26,T26,Y26),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>1000000</v>
       </c>
@@ -3002,32 +2096,8 @@
       <c r="Y27" s="3">
         <v>1</v>
       </c>
-      <c r="AA27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),1,1)</f>
-        <v>2.3410171166966273E-5</v>
-      </c>
-      <c r="AB27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),1,1)</f>
-        <v>6.9490258236933316E-5</v>
-      </c>
-      <c r="AC27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B27,G27,L27,Q27,V27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
-        <v>2.8519253429191382E-7</v>
-      </c>
-      <c r="AE27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),1,1)</f>
-        <v>0.12099076528401055</v>
-      </c>
-      <c r="AF27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C27,H27,M27,R27,W27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
-        <v>4.3822588251697388E-2</v>
-      </c>
-      <c r="AH27">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D27,I27,N27,S27,X27),CHOOSE({1;2;3;4;5},E27,J27,O27,T27,Y27),1,1)</f>
-        <v>3.2492955171060309E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+    </row>
+    <row r="29">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -3104,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30">
       <c r="A30" s="1">
         <v>10000</v>
       </c>
@@ -3180,32 +2250,8 @@
       <c r="Y30" s="3">
         <v>1</v>
       </c>
-      <c r="AA30">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),1,1)</f>
-        <v>6.328494953948841E-10</v>
-      </c>
-      <c r="AB30">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),1,1)</f>
-        <v>6.328494953948841E-10</v>
-      </c>
-      <c r="AC30">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B30,G30,L30,Q30,V30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
-        <v>6.2547191024256703E-10</v>
-      </c>
-      <c r="AE30" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C30,H30,M30,R30,W30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D30,I30,N30,S30,X30),CHOOSE({1;2;3;4;5},E30,J30,O30,T30,Y30),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>100000</v>
       </c>
@@ -3281,32 +2327,8 @@
       <c r="Y31" s="3">
         <v>34</v>
       </c>
-      <c r="AA31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),1,1)</f>
-        <v>1.138568444392008E-8</v>
-      </c>
-      <c r="AB31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),1,1)</f>
-        <v>1.1502430194327628E-8</v>
-      </c>
-      <c r="AC31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B31,G31,L31,Q31,V31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
-        <v>1.1691026760195664E-8</v>
-      </c>
-      <c r="AE31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),1,1)</f>
-        <v>4.4716568587437327E-4</v>
-      </c>
-      <c r="AF31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C31,H31,M31,R31,W31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
-        <v>0.48249491068338402</v>
-      </c>
-      <c r="AH31">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D31,I31,N31,S31,X31),CHOOSE({1;2;3;4;5},E31,J31,O31,T31,Y31),1,1)</f>
-        <v>6.8612937513002781E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+    </row>
+    <row r="32">
       <c r="A32" s="1">
         <v>1000000</v>
       </c>
@@ -3382,32 +2404,8 @@
       <c r="Y32" s="3">
         <v>616</v>
       </c>
-      <c r="AA32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),1,1)</f>
-        <v>1.7359665148060156E-6</v>
-      </c>
-      <c r="AB32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),1,1)</f>
-        <v>4.0058525752835196E-9</v>
-      </c>
-      <c r="AC32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B32,G32,L32,Q32,V32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
-        <v>1.0243266412146689E-7</v>
-      </c>
-      <c r="AE32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),1,1)</f>
-        <v>3.9086845808899308E-6</v>
-      </c>
-      <c r="AF32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C32,H32,M32,R32,W32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
-        <v>1.9747272095136257E-5</v>
-      </c>
-      <c r="AH32">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D32,I32,N32,S32,X32),CHOOSE({1;2;3;4;5},E32,J32,O32,T32,Y32),1,1)</f>
-        <v>3.2963369145900209E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+    </row>
+    <row r="33">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -3484,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34">
       <c r="A34" s="1">
         <v>10000</v>
       </c>
@@ -3560,32 +2558,8 @@
       <c r="Y34" s="3">
         <v>2</v>
       </c>
-      <c r="AA34">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),1,1)</f>
-        <v>3.7839748295432317E-11</v>
-      </c>
-      <c r="AB34">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),1,1)</f>
-        <v>3.8212332312715655E-11</v>
-      </c>
-      <c r="AC34">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B34,G34,L34,Q34,V34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
-        <v>3.4424968236801008E-11</v>
-      </c>
-      <c r="AE34" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF34">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C34,H34,M34,R34,W34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
-        <v>8.0650449500462677E-3</v>
-      </c>
-      <c r="AH34">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D34,I34,N34,S34,X34),CHOOSE({1;2;3;4;5},E34,J34,O34,T34,Y34),1,1)</f>
-        <v>2.2601065539704837E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35">
       <c r="A35" s="1">
         <v>100000</v>
       </c>
@@ -3661,32 +2635,8 @@
       <c r="Y35" s="3">
         <v>34</v>
       </c>
-      <c r="AA35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),1,1)</f>
-        <v>5.934024997400706E-10</v>
-      </c>
-      <c r="AB35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),1,1)</f>
-        <v>5.9503818568036053E-10</v>
-      </c>
-      <c r="AC35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B35,G35,L35,Q35,V35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
-        <v>5.9066367457356093E-10</v>
-      </c>
-      <c r="AE35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),1,1)</f>
-        <v>1.3216516687067278E-7</v>
-      </c>
-      <c r="AF35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C35,H35,M35,R35,W35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
-        <v>8.9671393804823928E-3</v>
-      </c>
-      <c r="AH35">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D35,I35,N35,S35,X35),CHOOSE({1;2;3;4;5},E35,J35,O35,T35,Y35),1,1)</f>
-        <v>3.278685787861532E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36">
       <c r="A36" s="1">
         <v>1000000</v>
       </c>
@@ -3762,32 +2712,8 @@
       <c r="Y36" s="3">
         <v>387</v>
       </c>
-      <c r="AA36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),1,1)</f>
-        <v>2.4608264413042982E-6</v>
-      </c>
-      <c r="AB36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),1,1)</f>
-        <v>1.1976837685518803E-7</v>
-      </c>
-      <c r="AC36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B36,G36,L36,Q36,V36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
-        <v>1.1642548847663586E-6</v>
-      </c>
-      <c r="AE36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),1,1)</f>
-        <v>4.9543717418677719E-6</v>
-      </c>
-      <c r="AF36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C36,H36,M36,R36,W36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
-        <v>8.0751998481235396E-5</v>
-      </c>
-      <c r="AH36">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D36,I36,N36,S36,X36),CHOOSE({1;2;3;4;5},E36,J36,O36,T36,Y36),1,1)</f>
-        <v>1.2889414129491191E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -3864,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38">
       <c r="A38" s="1">
         <v>10000</v>
       </c>
@@ -3940,32 +2866,8 @@
       <c r="Y38" s="3">
         <v>1</v>
       </c>
-      <c r="AA38">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),1,1)</f>
-        <v>1.3470846870003782E-5</v>
-      </c>
-      <c r="AB38">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),1,1)</f>
-        <v>1.6961823247933822E-5</v>
-      </c>
-      <c r="AC38">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B38,G38,L38,Q38,V38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
-        <v>1.3803772760606935E-5</v>
-      </c>
-      <c r="AE38" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF38">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C38,H38,M38,R38,W38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
-        <v>8.0650449500462677E-3</v>
-      </c>
-      <c r="AH38">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D38,I38,N38,S38,X38),CHOOSE({1;2;3;4;5},E38,J38,O38,T38,Y38),1,1)</f>
-        <v>2.2601065539704837E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>100000</v>
       </c>
@@ -4041,32 +2943,8 @@
       <c r="Y39" s="3">
         <v>39</v>
       </c>
-      <c r="AA39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),1,1)</f>
-        <v>4.6236433740297589E-6</v>
-      </c>
-      <c r="AB39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),1,1)</f>
-        <v>4.6855172963063163E-6</v>
-      </c>
-      <c r="AC39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B39,G39,L39,Q39,V39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
-        <v>4.6934121512678432E-6</v>
-      </c>
-      <c r="AE39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),1,1)</f>
-        <v>9.3012396548597468E-9</v>
-      </c>
-      <c r="AF39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C39,H39,M39,R39,W39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
-        <v>5.773386027692862E-3</v>
-      </c>
-      <c r="AH39">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D39,I39,N39,S39,X39),CHOOSE({1;2;3;4;5},E39,J39,O39,T39,Y39),1,1)</f>
-        <v>8.1157972676951518E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40">
       <c r="A40" s="1">
         <v>1000000</v>
       </c>
@@ -4142,32 +3020,8 @@
       <c r="Y40" s="3">
         <v>372</v>
       </c>
-      <c r="AA40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),1,1)</f>
-        <v>4.0562280987519854E-9</v>
-      </c>
-      <c r="AB40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),1,1)</f>
-        <v>4.0573624750060522E-9</v>
-      </c>
-      <c r="AC40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B40,G40,L40,Q40,V40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
-        <v>4.0484999588626569E-9</v>
-      </c>
-      <c r="AE40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),1,1)</f>
-        <v>1.1614531586914003E-6</v>
-      </c>
-      <c r="AF40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C40,H40,M40,R40,W40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
-        <v>1.7936520428282125E-3</v>
-      </c>
-      <c r="AH40">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D40,I40,N40,S40,X40),CHOOSE({1;2;3;4;5},E40,J40,O40,T40,Y40),1,1)</f>
-        <v>3.661742470149349E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -4244,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43">
       <c r="A43" s="1">
         <v>10000</v>
       </c>
@@ -4320,32 +3174,8 @@
       <c r="Y43" s="3">
         <v>1</v>
       </c>
-      <c r="AA43">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),1,1)</f>
-        <v>9.9923085501675663E-8</v>
-      </c>
-      <c r="AB43">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),1,1)</f>
-        <v>7.6939456917722437E-8</v>
-      </c>
-      <c r="AC43" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B43,G43,L43,Q43,V43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE43">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),1,1)</f>
-        <v>9.2444637330586943E-35</v>
-      </c>
-      <c r="AF43">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C43,H43,M43,R43,W43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AH43">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D43,I43,N43,S43,X43),CHOOSE({1;2;3;4;5},E43,J43,O43,T43,Y43),1,1)</f>
-        <v>8.0650449500462677E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44">
       <c r="A44" s="1">
         <v>100000</v>
       </c>
@@ -4421,32 +3251,8 @@
       <c r="Y44" s="3">
         <v>9</v>
       </c>
-      <c r="AA44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),1,1)</f>
-        <v>1.1049124730322824E-10</v>
-      </c>
-      <c r="AB44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),1,1)</f>
-        <v>1.605022331407342E-11</v>
-      </c>
-      <c r="AC44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B44,G44,L44,Q44,V44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
-        <v>6.3206065070236388E-11</v>
-      </c>
-      <c r="AE44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),1,1)</f>
-        <v>1.0465305734781544E-3</v>
-      </c>
-      <c r="AF44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C44,H44,M44,R44,W44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
-        <v>3.4506877710087356E-3</v>
-      </c>
-      <c r="AH44">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D44,I44,N44,S44,X44),CHOOSE({1;2;3;4;5},E44,J44,O44,T44,Y44),1,1)</f>
-        <v>3.9595371411983004E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45">
       <c r="A45" s="1">
         <v>1000000</v>
       </c>
@@ -4522,32 +3328,8 @@
       <c r="Y45" s="3">
         <v>124</v>
       </c>
-      <c r="AA45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),1,1)</f>
-        <v>2.217885854095688E-4</v>
-      </c>
-      <c r="AB45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),1,1)</f>
-        <v>2.2120297189081516E-4</v>
-      </c>
-      <c r="AC45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B45,G45,L45,Q45,V45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
-        <v>2.2138747384499747E-4</v>
-      </c>
-      <c r="AE45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),1,1)</f>
-        <v>7.5347780705352847E-6</v>
-      </c>
-      <c r="AF45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C45,H45,M45,R45,W45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
-        <v>2.2545719709019732E-5</v>
-      </c>
-      <c r="AH45">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D45,I45,N45,S45,X45),CHOOSE({1;2;3;4;5},E45,J45,O45,T45,Y45),1,1)</f>
-        <v>1.9562815818740497E-8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4624,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48">
       <c r="A48" s="1">
         <v>10000</v>
       </c>
@@ -4700,32 +3482,8 @@
       <c r="Y48" s="3">
         <v>3240</v>
       </c>
-      <c r="AA48" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB48" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC48">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B48,G48,L48,Q48,V48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
-        <v>2.6050611872923126E-11</v>
-      </c>
-      <c r="AE48" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF48">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C48,H48,M48,R48,W48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
-        <v>2.6050611872923126E-11</v>
-      </c>
-      <c r="AH48">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D48,I48,N48,S48,X48),CHOOSE({1;2;3;4;5},E48,J48,O48,T48,Y48),1,1)</f>
-        <v>2.6050611872923126E-11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49">
       <c r="A49" s="1">
         <v>100000</v>
       </c>
@@ -4801,32 +3559,8 @@
       <c r="Y49" s="3">
         <v>37277</v>
       </c>
-      <c r="AA49" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB49" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC49">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B49,G49,L49,Q49,V49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
-        <v>2.0090989026987141E-12</v>
-      </c>
-      <c r="AE49" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF49">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C49,H49,M49,R49,W49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
-        <v>2.0090989026987141E-12</v>
-      </c>
-      <c r="AH49">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D49,I49,N49,S49,X49),CHOOSE({1;2;3;4;5},E49,J49,O49,T49,Y49),1,1)</f>
-        <v>2.0090989026987141E-12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50">
       <c r="A50" s="1">
         <v>1000000</v>
       </c>
@@ -4902,32 +3636,8 @@
       <c r="Y50" s="3">
         <v>880274</v>
       </c>
-      <c r="AA50">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AB50" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC50">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B50,G50,L50,Q50,V50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
-        <v>3.6678768952580071E-11</v>
-      </c>
-      <c r="AE50">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AF50">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C50,H50,M50,R50,W50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
-        <v>3.6686992480558752E-11</v>
-      </c>
-      <c r="AH50">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D50,I50,N50,S50,X50),CHOOSE({1;2;3;4;5},E50,J50,O50,T50,Y50),1,1)</f>
-        <v>3.6678768952580071E-11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+    </row>
+    <row r="52">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -5004,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53">
       <c r="A53" s="1">
         <v>10000</v>
       </c>
@@ -5080,32 +3790,8 @@
       <c r="Y53" s="3">
         <v>3168</v>
       </c>
-      <c r="AA53" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB53" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC53">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B53,G53,L53,Q53,V53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
-        <v>7.1104961439791436E-12</v>
-      </c>
-      <c r="AE53" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF53">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C53,H53,M53,R53,W53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
-        <v>7.1104961439791436E-12</v>
-      </c>
-      <c r="AH53">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D53,I53,N53,S53,X53),CHOOSE({1;2;3;4;5},E53,J53,O53,T53,Y53),1,1)</f>
-        <v>7.1104961439791436E-12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54">
       <c r="A54" s="1">
         <v>100000</v>
       </c>
@@ -5181,32 +3867,8 @@
       <c r="Y54" s="3">
         <v>40363</v>
       </c>
-      <c r="AA54" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB54" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC54">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B54,G54,L54,Q54,V54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
-        <v>6.858817689941321E-5</v>
-      </c>
-      <c r="AE54" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF54">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C54,H54,M54,R54,W54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
-        <v>6.858817689941321E-5</v>
-      </c>
-      <c r="AH54">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D54,I54,N54,S54,X54),CHOOSE({1;2;3;4;5},E54,J54,O54,T54,Y54),1,1)</f>
-        <v>6.858817689941321E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+    </row>
+    <row r="55">
       <c r="A55" s="1">
         <v>1000000</v>
       </c>
@@ -5282,32 +3944,8 @@
       <c r="Y55" s="3">
         <v>903803</v>
       </c>
-      <c r="AA55">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AB55" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC55">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B55,G55,L55,Q55,V55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
-        <v>4.676100595914997E-8</v>
-      </c>
-      <c r="AE55">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),1,1)</f>
-        <v>0.18695048315002952</v>
-      </c>
-      <c r="AF55">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C55,H55,M55,R55,W55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
-        <v>4.6761201346323753E-8</v>
-      </c>
-      <c r="AH55">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D55,I55,N55,S55,X55),CHOOSE({1;2;3;4;5},E55,J55,O55,T55,Y55),1,1)</f>
-        <v>4.676100595914997E-8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+    </row>
+    <row r="57">
       <c r="A57" s="4" t="s">
         <v>44</v>
       </c>
@@ -5384,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58">
       <c r="A58" s="1">
         <v>10000</v>
       </c>
@@ -5460,32 +4098,8 @@
       <c r="Y58" s="3">
         <v>1446</v>
       </c>
-      <c r="AA58" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB58" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC58">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B58,G58,L58,Q58,V58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
-        <v>3.7315519113500946E-12</v>
-      </c>
-      <c r="AE58" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF58">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C58,H58,M58,R58,W58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
-        <v>3.460228822167752E-12</v>
-      </c>
-      <c r="AH58">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D58,I58,N58,S58,X58),CHOOSE({1;2;3;4;5},E58,J58,O58,T58,Y58),1,1)</f>
-        <v>3.5085652602345534E-12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59">
       <c r="A59" s="1">
         <v>100000</v>
       </c>
@@ -5561,32 +4175,8 @@
       <c r="Y59" s="3">
         <v>169185</v>
       </c>
-      <c r="AA59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),1,1)</f>
-        <v>1.0272872284454827E-12</v>
-      </c>
-      <c r="AB59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),1,1)</f>
-        <v>3.3662168133023833E-13</v>
-      </c>
-      <c r="AC59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B59,G59,L59,Q59,V59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
-        <v>9.6856006630985232E-9</v>
-      </c>
-      <c r="AE59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),1,1)</f>
-        <v>3.3827669095619959E-6</v>
-      </c>
-      <c r="AF59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C59,H59,M59,R59,W59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
-        <v>8.7521392193463641E-9</v>
-      </c>
-      <c r="AH59">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D59,I59,N59,S59,X59),CHOOSE({1;2;3;4;5},E59,J59,O59,T59,Y59),1,1)</f>
-        <v>8.743009675397176E-9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60">
       <c r="A60" s="1">
         <v>1000000</v>
       </c>
@@ -5662,32 +4252,8 @@
       <c r="Y60" s="3">
         <v>-1</v>
       </c>
-      <c r="AA60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),1,1)</f>
-        <v>5.4805405550075543E-4</v>
-      </c>
-      <c r="AB60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),1,1)</f>
-        <v>5.500911863644259E-4</v>
-      </c>
-      <c r="AC60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B60,G60,L60,Q60,V60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
-        <v>5.4778103488084735E-4</v>
-      </c>
-      <c r="AE60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),1,1)</f>
-        <v>1.210584701966831E-8</v>
-      </c>
-      <c r="AF60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C60,H60,M60,R60,W60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
-        <v>5.1694807140227384E-10</v>
-      </c>
-      <c r="AH60">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D60,I60,N60,S60,X60),CHOOSE({1;2;3;4;5},E60,J60,O60,T60,Y60),1,1)</f>
-        <v>7.2272274043501706E-9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62">
       <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
@@ -5764,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63">
       <c r="A63" s="1">
         <v>10000</v>
       </c>
@@ -5840,32 +4406,8 @@
       <c r="Y63" s="3">
         <v>1445</v>
       </c>
-      <c r="AA63" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB63">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),1,1)</f>
-        <v>1.9408566924700694E-4</v>
-      </c>
-      <c r="AC63">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B63,G63,L63,Q63,V63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
-        <v>6.4228818080770015E-13</v>
-      </c>
-      <c r="AE63">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),1,1)</f>
-        <v>6.5006528833606935E-6</v>
-      </c>
-      <c r="AF63">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C63,H63,M63,R63,W63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
-        <v>6.3696501979952904E-13</v>
-      </c>
-      <c r="AH63">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D63,I63,N63,S63,X63),CHOOSE({1;2;3;4;5},E63,J63,O63,T63,Y63),1,1)</f>
-        <v>6.1958159520414786E-13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64">
       <c r="A64" s="1">
         <v>100000</v>
       </c>
@@ -5941,32 +4483,8 @@
       <c r="Y64" s="3">
         <v>166077</v>
       </c>
-      <c r="AA64" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB64" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC64">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B64,G64,L64,Q64,V64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
-        <v>1.9891049742492966E-12</v>
-      </c>
-      <c r="AE64" t="e">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),1,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF64">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C64,H64,M64,R64,W64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
-        <v>1.9876176670265183E-12</v>
-      </c>
-      <c r="AH64">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D64,I64,N64,S64,X64),CHOOSE({1;2;3;4;5},E64,J64,O64,T64,Y64),1,1)</f>
-        <v>1.9907378144076841E-12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65">
       <c r="A65" s="1">
         <v>1000000</v>
       </c>
@@ -6042,55 +4560,8 @@
       <c r="Y65" s="3">
         <v>-1</v>
       </c>
-      <c r="AA65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),1,1)</f>
-        <v>3.8383348347252721E-6</v>
-      </c>
-      <c r="AB65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),1,1)</f>
-        <v>1.673602356848078E-6</v>
-      </c>
-      <c r="AC65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},B65,G65,L65,Q65,V65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
-        <v>1.494570839553672E-6</v>
-      </c>
-      <c r="AE65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),1,1)</f>
-        <v>1.2665577775116052E-12</v>
-      </c>
-      <c r="AF65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},C65,H65,M65,R65,W65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
-        <v>3.8452572317687211E-10</v>
-      </c>
-      <c r="AH65">
-        <f>_xlfn.T.TEST(CHOOSE({1;2;3;4;5},D65,I65,N65,S65,X65),CHOOSE({1;2;3;4;5},E65,J65,O65,T65,Y65),1,1)</f>
-        <v>2.462775431267511E-13</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AA2:AC65">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AF65">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH65">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AH65">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.01</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/statistics_temp_erik.xlsx
+++ b/statistics_temp_erik.xlsx
@@ -261,17 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -289,126 +279,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -721,7 +591,7 @@
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6069,25 +5939,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA2:AC65">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AF65">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH65">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AH65">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
